--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.37988750396842</v>
+        <v>6.138059000000001</v>
       </c>
       <c r="H2">
-        <v>5.37988750396842</v>
+        <v>18.414177</v>
       </c>
       <c r="I2">
-        <v>0.07596118062511033</v>
+        <v>0.08535364925338249</v>
       </c>
       <c r="J2">
-        <v>0.07596118062511033</v>
+        <v>0.08535364925338247</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>567.6680375970803</v>
+        <v>690.6138383861281</v>
       </c>
       <c r="R2">
-        <v>567.6680375970803</v>
+        <v>6215.524545475152</v>
       </c>
       <c r="S2">
-        <v>0.0238862026060587</v>
+        <v>0.02795599150653683</v>
       </c>
       <c r="T2">
-        <v>0.0238862026060587</v>
+        <v>0.02795599150653682</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.37988750396842</v>
+        <v>6.138059000000001</v>
       </c>
       <c r="H3">
-        <v>5.37988750396842</v>
+        <v>18.414177</v>
       </c>
       <c r="I3">
-        <v>0.07596118062511033</v>
+        <v>0.08535364925338249</v>
       </c>
       <c r="J3">
-        <v>0.07596118062511033</v>
+        <v>0.08535364925338247</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>571.2122186312744</v>
+        <v>652.5644648614941</v>
       </c>
       <c r="R3">
-        <v>571.2122186312744</v>
+        <v>5873.080183753446</v>
       </c>
       <c r="S3">
-        <v>0.02403533382474358</v>
+        <v>0.0264157559885671</v>
       </c>
       <c r="T3">
-        <v>0.02403533382474358</v>
+        <v>0.0264157559885671</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.37988750396842</v>
+        <v>6.138059000000001</v>
       </c>
       <c r="H4">
-        <v>5.37988750396842</v>
+        <v>18.414177</v>
       </c>
       <c r="I4">
-        <v>0.07596118062511033</v>
+        <v>0.08535364925338249</v>
       </c>
       <c r="J4">
-        <v>0.07596118062511033</v>
+        <v>0.08535364925338247</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>666.3767387900261</v>
+        <v>765.3647372436649</v>
       </c>
       <c r="R4">
-        <v>666.3767387900261</v>
+        <v>6888.282635192983</v>
       </c>
       <c r="S4">
-        <v>0.02803964419430805</v>
+        <v>0.03098190175827855</v>
       </c>
       <c r="T4">
-        <v>0.02803964419430805</v>
+        <v>0.03098190175827855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.09896645274</v>
+        <v>37.15353</v>
       </c>
       <c r="H5">
-        <v>37.09896645274</v>
+        <v>111.46059</v>
       </c>
       <c r="I5">
-        <v>0.5238178846012602</v>
+        <v>0.5166436764692264</v>
       </c>
       <c r="J5">
-        <v>0.5238178846012602</v>
+        <v>0.5166436764692264</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>3914.560939717087</v>
+        <v>4180.269685073759</v>
       </c>
       <c r="R5">
-        <v>3914.560939717087</v>
+        <v>37622.42716566384</v>
       </c>
       <c r="S5">
-        <v>0.1647159775203218</v>
+        <v>0.1692169738215063</v>
       </c>
       <c r="T5">
-        <v>0.1647159775203218</v>
+        <v>0.1692169738215063</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.09896645274</v>
+        <v>37.15353</v>
       </c>
       <c r="H6">
-        <v>37.09896645274</v>
+        <v>111.46059</v>
       </c>
       <c r="I6">
-        <v>0.5238178846012602</v>
+        <v>0.5166436764692264</v>
       </c>
       <c r="J6">
-        <v>0.5238178846012602</v>
+        <v>0.5166436764692264</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>3939.001126095151</v>
+        <v>3949.95770196498</v>
       </c>
       <c r="R6">
-        <v>3939.001126095151</v>
+        <v>35549.61931768482</v>
       </c>
       <c r="S6">
-        <v>0.165744365953159</v>
+        <v>0.1598939636445181</v>
       </c>
       <c r="T6">
-        <v>0.165744365953159</v>
+        <v>0.1598939636445182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.09896645274</v>
+        <v>37.15353</v>
       </c>
       <c r="H7">
-        <v>37.09896645274</v>
+        <v>111.46059</v>
       </c>
       <c r="I7">
-        <v>0.5238178846012602</v>
+        <v>0.5166436764692264</v>
       </c>
       <c r="J7">
-        <v>0.5238178846012602</v>
+        <v>0.5166436764692264</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>4595.242606657037</v>
+        <v>4632.73515717666</v>
       </c>
       <c r="R7">
-        <v>4595.242606657037</v>
+        <v>41694.61641458994</v>
       </c>
       <c r="S7">
-        <v>0.1933575411277794</v>
+        <v>0.1875327390032019</v>
       </c>
       <c r="T7">
-        <v>0.1933575411277794</v>
+        <v>0.187532739003202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.3453151740963</v>
+        <v>28.621669</v>
       </c>
       <c r="H8">
-        <v>28.3453151740963</v>
+        <v>85.86500699999999</v>
       </c>
       <c r="I8">
-        <v>0.4002209347736295</v>
+        <v>0.3980026742773913</v>
       </c>
       <c r="J8">
-        <v>0.4002209347736295</v>
+        <v>0.3980026742773912</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>2990.904443277081</v>
+        <v>3220.321063891247</v>
       </c>
       <c r="R8">
-        <v>2990.904443277081</v>
+        <v>28982.88957502123</v>
       </c>
       <c r="S8">
-        <v>0.1258505759984063</v>
+        <v>0.1303583324088133</v>
       </c>
       <c r="T8">
-        <v>0.1258505759984063</v>
+        <v>0.1303583324088133</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.3453151740963</v>
+        <v>28.621669</v>
       </c>
       <c r="H9">
-        <v>28.3453151740963</v>
+        <v>85.86500699999999</v>
       </c>
       <c r="I9">
-        <v>0.4002209347736295</v>
+        <v>0.3980026742773913</v>
       </c>
       <c r="J9">
-        <v>0.4002209347736295</v>
+        <v>0.3980026742773912</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>3009.577868766773</v>
+        <v>3042.897455763753</v>
       </c>
       <c r="R9">
-        <v>3009.577868766773</v>
+        <v>27386.07710187378</v>
       </c>
       <c r="S9">
-        <v>0.1266363120185</v>
+        <v>0.1231762393110811</v>
       </c>
       <c r="T9">
-        <v>0.1266363120185</v>
+        <v>0.1231762393110811</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.3453151740963</v>
+        <v>28.621669</v>
       </c>
       <c r="H10">
-        <v>28.3453151740963</v>
+        <v>85.86500699999999</v>
       </c>
       <c r="I10">
-        <v>0.4002209347736295</v>
+        <v>0.3980026742773913</v>
       </c>
       <c r="J10">
-        <v>0.4002209347736295</v>
+        <v>0.3980026742773912</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>3510.976516099399</v>
+        <v>3568.883286012751</v>
       </c>
       <c r="R10">
-        <v>3510.976516099399</v>
+        <v>32119.94957411476</v>
       </c>
       <c r="S10">
-        <v>0.1477340467567231</v>
+        <v>0.1444681025574968</v>
       </c>
       <c r="T10">
-        <v>0.1477340467567231</v>
+        <v>0.1444681025574968</v>
       </c>
     </row>
   </sheetData>
